--- a/catalogo/Lista.xlsx
+++ b/catalogo/Lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\JavaProjects\excel-pdf\catalogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEC83C2-3633-4ECA-9ADF-3FB36C9BF088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BAC88D-58FF-443F-ADAC-D88D23A14422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{94487EC6-927E-4E45-A61B-F75F73A9D83B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="51">
   <si>
     <t>TORTERA ALUM. FIJA ALTA BODA Nº 30*8 CM (1005)</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Código Externo</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
+  </si>
+  <si>
+    <t>123asd</t>
   </si>
 </sst>
 </file>
@@ -233,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,6 +250,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,15 +568,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9380B1D-4BD8-4889-8944-1FD9BAD79389}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
@@ -1510,7 +1520,7 @@
       <c r="A42" s="1">
         <v>1050965</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1644,7 +1654,31 @@
         <v>24</v>
       </c>
     </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>12345</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="3">
+        <v>9999</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/catalogo/Lista.xlsx
+++ b/catalogo/Lista.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\JavaProjects\excel-pdf\catalogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BAC88D-58FF-443F-ADAC-D88D23A14422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A984E3-1431-42FB-80E2-FF8447DE416D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{94487EC6-927E-4E45-A61B-F75F73A9D83B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -567,10 +568,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5091663-A8B3-4DF5-B5BB-6D9F849242D3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9380B1D-4BD8-4889-8944-1FD9BAD79389}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
